--- a/data/trans_dic/P79A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79A_R-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.05837807808923381</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04371935157259337</v>
+        <v>0.04371935157259336</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009885458203939403</v>
+        <v>0.00869217781369149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03103130693510919</v>
+        <v>0.03045425614228241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0249196308750067</v>
+        <v>0.02360877381725859</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07928203360177587</v>
+        <v>0.07869864185145675</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1062414198422495</v>
+        <v>0.1102992375911583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07414724214988777</v>
+        <v>0.07086154636132694</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.02106831917245381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02519637653288221</v>
+        <v>0.02519637653288222</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01385340325229866</v>
+        <v>0.01342619277119207</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009327832833722819</v>
+        <v>0.009640646202733446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01472576053162806</v>
+        <v>0.01465362031503202</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05656914453438106</v>
+        <v>0.05754818412317703</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03848837149874958</v>
+        <v>0.0429207665755033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04179535947025134</v>
+        <v>0.04141031616575947</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.03043748055492995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03016497659711446</v>
+        <v>0.03016497659711445</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01861348213197072</v>
+        <v>0.01612958714905787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01952321704267302</v>
+        <v>0.02000915383408734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02231239314418786</v>
+        <v>0.02188714978382321</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0465494889338265</v>
+        <v>0.04614691456379085</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04459744442110444</v>
+        <v>0.04455149170596504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04070883885010293</v>
+        <v>0.04028086319910545</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02581458024506405</v>
+        <v>0.02581458024506404</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01728949646695555</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01472168544773605</v>
+        <v>0.01564027315262679</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01128021810247825</v>
+        <v>0.01051331330884393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01454386672075136</v>
+        <v>0.01533250542872869</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04097853699692322</v>
+        <v>0.04312134224639551</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02675993246598186</v>
+        <v>0.02687881800596075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03022443189836056</v>
+        <v>0.03074259444364474</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.02360491356073267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02511023259270407</v>
+        <v>0.02511023259270406</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01537727710080337</v>
+        <v>0.01540869012386946</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01513803448211641</v>
+        <v>0.01476054762031865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01829520684876349</v>
+        <v>0.0179972036130495</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04221511366000701</v>
+        <v>0.04160558342088254</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03460716380281695</v>
+        <v>0.03486808503660043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03470964388090839</v>
+        <v>0.0346878325419862</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.01193091061577709</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.008462102775708134</v>
+        <v>0.008462102775708132</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.01013074463062275</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005540383791612988</v>
+        <v>0.004758705768224517</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00384734277978496</v>
+        <v>0.003616679645747236</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005794212277362907</v>
+        <v>0.005831334821830949</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02414445677342642</v>
+        <v>0.02429421821741328</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01786935708014046</v>
+        <v>0.01723861793072392</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01800241201537577</v>
+        <v>0.01704660909555957</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.00591663337734225</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.004892726052632638</v>
+        <v>0.004892726052632637</v>
       </c>
     </row>
     <row r="23">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002278575183181959</v>
+        <v>0.002224548354697534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001853553349834163</v>
+        <v>0.001691913064349099</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01368572765204564</v>
+        <v>0.01877257368760509</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01316254464753145</v>
+        <v>0.01395293544103053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01072755240840628</v>
+        <v>0.01015836766746751</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.02255296621645562</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.02333529980206941</v>
+        <v>0.0233352998020694</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01849238473059382</v>
+        <v>0.01840291412788386</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01808032305205098</v>
+        <v>0.01803210890332891</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01933955115180768</v>
+        <v>0.01954293183083654</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03123429551518168</v>
+        <v>0.03148034233396814</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02847806343617626</v>
+        <v>0.02842404184830219</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02784963182532533</v>
+        <v>0.02770982670861228</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4031</v>
+        <v>3545</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11249</v>
+        <v>11040</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19196</v>
+        <v>18186</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32331</v>
+        <v>32093</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38514</v>
+        <v>39985</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57116</v>
+        <v>54585</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6607</v>
+        <v>6403</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4680</v>
+        <v>4837</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14411</v>
+        <v>14340</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26977</v>
+        <v>27444</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19311</v>
+        <v>21535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40902</v>
+        <v>40525</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11556</v>
+        <v>10014</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12167</v>
+        <v>12470</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27757</v>
+        <v>27228</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28900</v>
+        <v>28650</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27793</v>
+        <v>27764</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50643</v>
+        <v>50111</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10314</v>
+        <v>10958</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8312</v>
+        <v>7747</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20907</v>
+        <v>22041</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28710</v>
+        <v>30212</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19719</v>
+        <v>19807</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43448</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9370</v>
+        <v>9389</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9217</v>
+        <v>8987</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22287</v>
+        <v>21924</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25724</v>
+        <v>25352</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21071</v>
+        <v>21230</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42283</v>
+        <v>42257</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2255</v>
+        <v>1937</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1690</v>
+        <v>1588</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4903</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9829</v>
+        <v>9890</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7848</v>
+        <v>7571</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15234</v>
+        <v>14426</v>
       </c>
     </row>
     <row r="28">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1436</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4245</v>
+        <v>5823</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6115</v>
+        <v>6483</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8312</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>65329</v>
+        <v>65013</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>67565</v>
+        <v>67385</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>140593</v>
+        <v>142072</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>110343</v>
+        <v>111213</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>106421</v>
+        <v>106219</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>202459</v>
+        <v>201443</v>
       </c>
     </row>
     <row r="36">
